--- a/utilities/JournalDeTravail/JDT.xlsx
+++ b/utilities/JournalDeTravail/JDT.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A30531-C20D-4329-963F-D71F16BD3886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{39A30531-C20D-4329-963F-D71F16BD3886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DCDB896-264A-44A1-8CFD-5E5566DA5802}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,8 +36,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{0C5E982B-5D40-43F9-B93F-AD8F059DF4F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Problèmes rencontrés : 
+Les backups ne se faisais pas sur le cluster 2 et 3. Proxmox ne pouvait pas se connecter au NAS. 
+Résolution : J'ai ajouté les adresses IP dans les droits NFS du Synology. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{847D8CBF-ED1A-492E-A983-8F45131D1802}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Les Backups ne se faisait pas à cause d'un problème sur les disques durs. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{DCE3A4BB-E4F2-4EC6-A10F-61587BED4E45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>La VM contenant l'AD principal ne voulait plus s'allumer. Pour résoudre ce problème j'ai repris une backup du serveur.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="61">
   <si>
     <t>Pause</t>
   </si>
@@ -114,9 +168,6 @@
     <t>Planification MA-Métier</t>
   </si>
   <si>
-    <t>Mise en place d'un système de ticketing</t>
-  </si>
-  <si>
     <t>Installation d'une infrastructure réseau</t>
   </si>
   <si>
@@ -169,6 +220,72 @@
   </si>
   <si>
     <t>Fin des cours</t>
+  </si>
+  <si>
+    <t>Intégration du NAS à l'AD</t>
+  </si>
+  <si>
+    <t>Intégration de PROXMOX à l'AD</t>
+  </si>
+  <si>
+    <t>Résolution de problèmes avec Proxmox et une VM</t>
+  </si>
+  <si>
+    <t>Résolution de problème avec le NAS et proxmox</t>
+  </si>
+  <si>
+    <t>Résolution de problème avec les backup</t>
+  </si>
+  <si>
+    <t>Résolution de problèmes sur le NAS et le PROXMOX principal</t>
+  </si>
+  <si>
+    <t>SPRINT REVIEW</t>
+  </si>
+  <si>
+    <t>Pare-Feu Virtuel</t>
+  </si>
+  <si>
+    <t>Problème réseau, j'ai pas pu travailler</t>
+  </si>
+  <si>
+    <t>Résolution de problème avec la redondance</t>
+  </si>
+  <si>
+    <t>Configuration OPNSense</t>
+  </si>
+  <si>
+    <t>Configuration d'internet sur OPNSense</t>
+  </si>
+  <si>
+    <t>Configuration HA sur Proxmox</t>
+  </si>
+  <si>
+    <t>Configuration LDAP sur OPNSense</t>
+  </si>
+  <si>
+    <t>Configuration de la VM Cliente</t>
+  </si>
+  <si>
+    <t>Intégration LDAP sur Proxmox</t>
+  </si>
+  <si>
+    <t>Préparation aux portes-ouvertes</t>
+  </si>
+  <si>
+    <t>Résolution de quelques problèmes sur proxmox</t>
+  </si>
+  <si>
+    <t>Portes-ouvertes avec Mr. Wyssa</t>
+  </si>
+  <si>
+    <t>Portes-ouvertes</t>
+  </si>
+  <si>
+    <t>Préparation au Spitch</t>
+  </si>
+  <si>
+    <t>Spitch</t>
   </si>
 </sst>
 </file>
@@ -182,7 +299,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Century Gothic"/>
@@ -349,8 +466,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,12 +681,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +939,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -849,37 +967,25 @@
     <xf numFmtId="168" fontId="18" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="16" fillId="36" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,6 +1004,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="16" fillId="36" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1436,11 +1545,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284F6444-B5B0-491E-81C4-46479E76C8CC}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:F38"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1454,16 +1564,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
@@ -1494,92 +1604,92 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="17"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="21"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
@@ -1602,92 +1712,92 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="21"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="21"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>37</v>
+      <c r="D17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="21"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="L20" s="2"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1696,23 +1806,23 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="B21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="1"/>
@@ -1722,28 +1832,28 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="25"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="25"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="25"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:17" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
@@ -1766,92 +1876,92 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="17" t="s">
+      <c r="B26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="D26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="17"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="17"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="17"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" s="21"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31" s="21"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="21"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="21"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
@@ -1874,103 +1984,101 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="17"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="17"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="17"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D39" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="21"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="21"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="21"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>23</v>
+      <c r="E39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="21"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="21"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="21"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="16"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="F26:F29"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A26:A29"/>
+    <mergeCell ref="E26:E29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -1995,7 +2103,9 @@
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F17:F20"/>
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="F39:F42"/>
     <mergeCell ref="C35:C38"/>
@@ -2006,10 +2116,10 @@
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E17:E20"/>
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="E30:E33"/>
-    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F26:F29"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="E39:E42"/>
     <mergeCell ref="B21:B24"/>
@@ -2021,25 +2131,26 @@
     <mergeCell ref="E35:E38"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le lieu de la session dans cette colonne sous cette rubrique, pour chaque intervalle de temps dans la colonne B. Faites ressortir les pauses de la conférence en appliquant le style personnalisé « Pause » comme dans l'exemple de ligne 7." sqref="B3" xr:uid="{800584E3-A8A0-4032-ACBE-ADD102991E5A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le lieu de la session dans cette colonne sous cette rubrique, pour chaque intervalle de temps dans la colonne B." sqref="C3:F3" xr:uid="{A10CB649-FA08-47D5-B12F-642EC7E19830}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Créez un échéancier des événements à l’aide de cette feuille de calcul. Entrez le nom de la société organisatrice dans la cellule G1 et détails de l’événement dans le tableau échéancier. Ajouter des informations dans la cellule B2" sqref="A1" xr:uid="{4DC1BDC1-E4BE-4418-9879-D5B59BF6A08F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6381A1B8-3D2C-41A7-B3B7-6DDF7AB1A78F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6381A1B8-3D2C-41A7-B3B7-6DDF7AB1A78F}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -2053,16 +2164,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="24"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
@@ -2093,72 +2204,92 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="21"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
@@ -2181,72 +2312,92 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="21"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="21"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="21"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="L20" s="2"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2255,14 +2406,24 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2271,28 +2432,28 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="25"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="25"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="25"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
@@ -2315,72 +2476,92 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" s="21"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="B30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31" s="21"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="21"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="21"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
@@ -2403,86 +2584,151 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="21"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="21"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="21"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="B39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="21"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="21"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="21"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="56">
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D39:D42"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="B39:B42"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F30:F33"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Créez un échéancier des événements à l’aide de cette feuille de calcul. Entrez le nom de la société organisatrice dans la cellule G1 et détails de l’événement dans le tableau échéancier. Ajouter des informations dans la cellule B2" sqref="A1" xr:uid="{A551C20B-2744-44F5-97B7-C0FBD9DBC904}"/>
@@ -2490,7 +2736,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le lieu de la session dans cette colonne sous cette rubrique, pour chaque intervalle de temps dans la colonne B. Faites ressortir les pauses de la conférence en appliquant le style personnalisé « Pause » comme dans l'exemple de ligne 7." sqref="B3" xr:uid="{A86C4DC3-7936-4E00-884C-C1E618DBBA22}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2498,11 +2745,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C9778E-502D-41B2-8899-3A2DD4B13931}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -2516,16 +2764,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="24"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
@@ -2555,73 +2803,93 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="20" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="21"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
@@ -2643,73 +2911,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="21"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="21"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="21"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="L20" s="2"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2717,15 +3005,25 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2734,28 +3032,28 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="25"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="25"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="25"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
@@ -2777,73 +3075,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" s="21"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="20" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="B30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31" s="21"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="21"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="21"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
@@ -2865,82 +3183,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="21"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="21"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="21"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="20" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="B39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="21"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="21"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="21"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="56">
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E4:E7"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -2953,7 +3336,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Créez un échéancier des événements à l’aide de cette feuille de calcul. Entrez le nom de la société organisatrice dans la cellule G1 et détails de l’événement dans le tableau échéancier. Ajouter des informations dans la cellule B2" sqref="A1" xr:uid="{757AF34C-8708-4AE9-B66B-712834F7186C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
